--- a/biology/Histoire de la zoologie et de la botanique/Hans_Edmund_Nicola_Burgeff/Hans_Edmund_Nicola_Burgeff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hans_Edmund_Nicola_Burgeff/Hans_Edmund_Nicola_Burgeff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Edmund Nicola Burgeff est un botaniste allemand, né le 19 avril 1883 à Geisenheim et mort le 27 septembre 1976.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université de Fribourg de 1903 à 1905 sous la direction de Friedrich Oltmanns (1860-1945), puis de 1905 à 1906 à Berlin, puis de 1906 à 1909 à Iéna où il passe un doctorat avec des recherches sur les relations entre les orchidées et leurs relations symbiotiques avec les champignons. Après avoir été brièvement l’assistant de Wilhelm Friedrich Philipp Pfeffer (1845-1920) à Leipzig, il devient professeur ordinaire de botanique en 1909 à l’université de Wurtzbourg, fonction qu’il occupe jusqu’en 1925. Il dirige également le jardin botanique de l’université.
 Outre les relations symbiotiques des orchidées, il travaille sur les Ericaceae et la génétique des plantes inférieures. En 1942, il reçoit le prix Röntgen de l’université de Wurtzbourg où il enseigne jusqu’à son départ avec le rang de professeur émérite.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1909 - Zur Biologie der Orchideenmycorrhiza
 1909 - Die Wurzelpilze der Orchideen
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue allemande de Wikipédia (version du 9 avril 2006).</t>
         </is>
